--- a/output/ARX_17414721000140.xlsx
+++ b/output/ARX_17414721000140.xlsx
@@ -1120,10 +1120,10 @@
         <v>44165</v>
       </c>
       <c r="B67">
-        <v>0.8357205999999999</v>
+        <v>0.84601474</v>
       </c>
       <c r="C67">
-        <v>0.004724797105829515</v>
+        <v>0.0103589757073439</v>
       </c>
     </row>
   </sheetData>

--- a/output/ARX_17414721000140.xlsx
+++ b/output/ARX_17414721000140.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ARX ESPECIAL MACRO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42185</v>
       </c>
@@ -411,719 +405,524 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42216</v>
       </c>
       <c r="B3">
         <v>0.01293714000000001</v>
       </c>
-      <c r="C3">
-        <v>0.01293714000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42247</v>
       </c>
       <c r="B4">
-        <v>0.01766102000000003</v>
-      </c>
-      <c r="C4">
         <v>0.004663547039059024</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42277</v>
       </c>
       <c r="B5">
-        <v>0.03159538999999989</v>
-      </c>
-      <c r="C5">
         <v>0.01369254567694833</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42308</v>
       </c>
       <c r="B6">
-        <v>0.05053047999999993</v>
-      </c>
-      <c r="C6">
         <v>0.01835515181974601</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42338</v>
       </c>
       <c r="B7">
-        <v>0.06525450999999993</v>
-      </c>
-      <c r="C7">
         <v>0.01401580466280228</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42369</v>
       </c>
       <c r="B8">
-        <v>0.07756860999999993</v>
-      </c>
-      <c r="C8">
         <v>0.01155977269694919</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42400</v>
       </c>
       <c r="B9">
-        <v>0.0894868499999999</v>
-      </c>
-      <c r="C9">
         <v>0.01106030733393393</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42429</v>
       </c>
       <c r="B10">
-        <v>0.1046624700000001</v>
-      </c>
-      <c r="C10">
         <v>0.01392914471615714</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42460</v>
       </c>
       <c r="B11">
-        <v>0.1269859499999999</v>
-      </c>
-      <c r="C11">
         <v>0.0202084171466419</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42490</v>
       </c>
       <c r="B12">
-        <v>0.14769359</v>
-      </c>
-      <c r="C12">
         <v>0.01837435506627227</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42521</v>
       </c>
       <c r="B13">
-        <v>0.1616353399999999</v>
-      </c>
-      <c r="C13">
         <v>0.01214762382701795</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42551</v>
       </c>
       <c r="B14">
-        <v>0.17749379</v>
-      </c>
-      <c r="C14">
         <v>0.01365183156359562</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42582</v>
       </c>
       <c r="B15">
-        <v>0.19506299</v>
-      </c>
-      <c r="C15">
         <v>0.01492084302202557</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42613</v>
       </c>
       <c r="B16">
-        <v>0.2157128100000001</v>
-      </c>
-      <c r="C16">
         <v>0.01727927328751111</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42643</v>
       </c>
       <c r="B17">
-        <v>0.2303186500000001</v>
-      </c>
-      <c r="C17">
         <v>0.01201421904898736</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42674</v>
       </c>
       <c r="B18">
-        <v>0.24004505</v>
-      </c>
-      <c r="C18">
         <v>0.007905594213336364</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42704</v>
       </c>
       <c r="B19">
-        <v>0.2484343499999999</v>
-      </c>
-      <c r="C19">
         <v>0.006765318727734781</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42735</v>
       </c>
       <c r="B20">
-        <v>0.2672815399999999</v>
-      </c>
-      <c r="C20">
         <v>0.01509666086967254</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42766</v>
       </c>
       <c r="B21">
-        <v>0.2838035800000001</v>
-      </c>
-      <c r="C21">
         <v>0.01303738709868685</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42794</v>
       </c>
       <c r="B22">
-        <v>0.3117988700000001</v>
-      </c>
-      <c r="C22">
         <v>0.02180652121253623</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42825</v>
       </c>
       <c r="B23">
-        <v>0.3351857499999999</v>
-      </c>
-      <c r="C23">
         <v>0.01782809890665615</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42855</v>
       </c>
       <c r="B24">
-        <v>0.3487487</v>
-      </c>
-      <c r="C24">
         <v>0.01015809972507586</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42886</v>
       </c>
       <c r="B25">
-        <v>0.3327187300000001</v>
-      </c>
-      <c r="C25">
         <v>-0.01188506798931477</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42916</v>
       </c>
       <c r="B26">
-        <v>0.3410489000000001</v>
-      </c>
-      <c r="C26">
         <v>0.006250508687605905</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42947</v>
       </c>
       <c r="B27">
-        <v>0.35034173</v>
-      </c>
-      <c r="C27">
         <v>0.006929523599027432</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42978</v>
       </c>
       <c r="B28">
-        <v>0.37258166</v>
-      </c>
-      <c r="C28">
         <v>0.016469853153394</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43008</v>
       </c>
       <c r="B29">
-        <v>0.38512195</v>
-      </c>
-      <c r="C29">
         <v>0.009136279731436936</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43039</v>
       </c>
       <c r="B30">
-        <v>0.3942920299999999</v>
-      </c>
-      <c r="C30">
         <v>0.006620413458901409</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43069</v>
       </c>
       <c r="B31">
-        <v>0.4046928599999999</v>
-      </c>
-      <c r="C31">
         <v>0.00745957789058016</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43100</v>
       </c>
       <c r="B32">
-        <v>0.41570083</v>
-      </c>
-      <c r="C32">
         <v>0.007836567205161238</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43131</v>
       </c>
       <c r="B33">
-        <v>0.4318578500000001</v>
-      </c>
-      <c r="C33">
         <v>0.0114127361216565</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43159</v>
       </c>
       <c r="B34">
-        <v>0.43472651</v>
-      </c>
-      <c r="C34">
         <v>0.002003453066238281</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43190</v>
       </c>
       <c r="B35">
-        <v>0.4424354800000001</v>
-      </c>
-      <c r="C35">
         <v>0.005373128569291064</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43220</v>
       </c>
       <c r="B36">
-        <v>0.4293477800000001</v>
-      </c>
-      <c r="C36">
         <v>-0.009073334774044817</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43251</v>
       </c>
       <c r="B37">
-        <v>0.3772564</v>
-      </c>
-      <c r="C37">
         <v>-0.03644416056671662</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43281</v>
       </c>
       <c r="B38">
-        <v>0.37616125</v>
-      </c>
-      <c r="C38">
         <v>-0.0007951678423857578</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43312</v>
       </c>
       <c r="B39">
-        <v>0.39367829</v>
-      </c>
-      <c r="C39">
         <v>0.01272891530698161</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43343</v>
       </c>
       <c r="B40">
-        <v>0.4092025500000001</v>
-      </c>
-      <c r="C40">
         <v>0.01113905562811057</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43373</v>
       </c>
       <c r="B41">
-        <v>0.43704097</v>
-      </c>
-      <c r="C41">
         <v>0.01975473291614471</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43404</v>
       </c>
       <c r="B42">
-        <v>0.4555578300000001</v>
-      </c>
-      <c r="C42">
         <v>0.01288540854892961</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43434</v>
       </c>
       <c r="B43">
-        <v>0.45788016</v>
-      </c>
-      <c r="C43">
         <v>0.001595491400022242</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43465</v>
       </c>
       <c r="B44">
-        <v>0.48812524</v>
-      </c>
-      <c r="C44">
         <v>0.02074593017302595</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43496</v>
       </c>
       <c r="B45">
-        <v>0.52365029</v>
-      </c>
-      <c r="C45">
         <v>0.02387235230282103</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43524</v>
       </c>
       <c r="B46">
-        <v>0.53958346</v>
-      </c>
-      <c r="C46">
         <v>0.01045723556420541</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43555</v>
       </c>
       <c r="B47">
-        <v>0.54891833</v>
-      </c>
-      <c r="C47">
         <v>0.006063243885459757</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43585</v>
       </c>
       <c r="B48">
-        <v>0.5610890799999999</v>
-      </c>
-      <c r="C48">
         <v>0.007857580199209124</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43616</v>
       </c>
       <c r="B49">
-        <v>0.5886514199999999</v>
-      </c>
-      <c r="C49">
         <v>0.01765584062634029</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43646</v>
       </c>
       <c r="B50">
-        <v>0.59183301</v>
-      </c>
-      <c r="C50">
         <v>0.002002698615911624</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43677</v>
       </c>
       <c r="B51">
-        <v>0.5948466100000001</v>
-      </c>
-      <c r="C51">
         <v>0.001893163404118603</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43708</v>
       </c>
       <c r="B52">
-        <v>0.6043733200000001</v>
-      </c>
-      <c r="C52">
         <v>0.005973433394951932</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43738</v>
       </c>
       <c r="B53">
-        <v>0.6165311</v>
-      </c>
-      <c r="C53">
         <v>0.007577899637473351</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43769</v>
       </c>
       <c r="B54">
-        <v>0.6329821799999999</v>
-      </c>
-      <c r="C54">
         <v>0.01017677915383119</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43799</v>
       </c>
       <c r="B55">
-        <v>0.6422217299999999</v>
-      </c>
-      <c r="C55">
         <v>0.005658083788764978</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43830</v>
       </c>
       <c r="B56">
-        <v>0.68908795</v>
-      </c>
-      <c r="C56">
         <v>0.02853830219382125</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43861</v>
       </c>
       <c r="B57">
-        <v>0.6668020299999999</v>
-      </c>
-      <c r="C57">
         <v>-0.01319405540723917</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43890</v>
       </c>
       <c r="B58">
-        <v>0.6523388299999999</v>
-      </c>
-      <c r="C58">
         <v>-0.008677215253931503</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43921</v>
       </c>
       <c r="B59">
-        <v>0.5752873999999999</v>
-      </c>
-      <c r="C59">
         <v>-0.04663173714800373</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43951</v>
       </c>
       <c r="B60">
-        <v>0.6562260600000001</v>
-      </c>
-      <c r="C60">
         <v>0.0513802497245901</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43982</v>
       </c>
       <c r="B61">
-        <v>0.60829456</v>
-      </c>
-      <c r="C61">
         <v>-0.02894019189626806</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>44012</v>
       </c>
       <c r="B62">
-        <v>0.70733972</v>
-      </c>
-      <c r="C62">
         <v>0.06158396755380435</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>44043</v>
       </c>
       <c r="B63">
-        <v>0.76873543</v>
-      </c>
-      <c r="C63">
         <v>0.03595986743634128</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>44074</v>
       </c>
       <c r="B64">
-        <v>0.79029919</v>
-      </c>
-      <c r="C64">
         <v>0.01219162551631592</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>44104</v>
       </c>
       <c r="B65">
-        <v>0.8050111900000001</v>
-      </c>
-      <c r="C65">
         <v>0.00821762087710054</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>44135</v>
       </c>
       <c r="B66">
-        <v>0.8270879799999999</v>
-      </c>
-      <c r="C66">
         <v>0.0122308327628704</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>44165</v>
       </c>
       <c r="B67">
-        <v>0.84601474</v>
-      </c>
-      <c r="C67">
-        <v>0.0103589757073439</v>
+        <v>0.005406006775874994</v>
       </c>
     </row>
   </sheetData>
